--- a/biology/Zoologie/Esturgeon_de_Sibérie/Esturgeon_de_Sibérie.xlsx
+++ b/biology/Zoologie/Esturgeon_de_Sibérie/Esturgeon_de_Sibérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esturgeon_de_Sib%C3%A9rie</t>
+          <t>Esturgeon_de_Sibérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression « esturgeon de Sibérie » est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes d'acipenséridés :
-l'Esturgeon sibérien ou Esturgeon de Sibérie (Acipenser baerii)[1],[2],[3] ;
-le Sterlet, Esturgeon du Danube ou Esturgeon de Sibérie (A. ruthenus)[4],[5],[6].
+l'Esturgeon sibérien ou Esturgeon de Sibérie (Acipenser baerii) ;
+le Sterlet, Esturgeon du Danube ou Esturgeon de Sibérie (A. ruthenus).
 			Estugeon sibérien (Acipenser baerii)
 			Sterlet (A. ruthenus)
 </t>
